--- a/natmiOut/OldD0/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.72844643797</v>
+        <v>120.6115993333333</v>
       </c>
       <c r="H2">
-        <v>109.72844643797</v>
+        <v>361.834798</v>
       </c>
       <c r="I2">
-        <v>0.405746132911943</v>
+        <v>0.4273073648704228</v>
       </c>
       <c r="J2">
-        <v>0.405746132911943</v>
+        <v>0.4273073648704228</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.77098124444703</v>
+        <v>25.33077566666667</v>
       </c>
       <c r="N2">
-        <v>6.77098124444703</v>
+        <v>75.992327</v>
       </c>
       <c r="O2">
-        <v>0.9697530295885368</v>
+        <v>0.988229338287255</v>
       </c>
       <c r="P2">
-        <v>0.9697530295885368</v>
+        <v>0.988229338287255</v>
       </c>
       <c r="Q2">
-        <v>742.9692528138054</v>
+        <v>3055.18536551055</v>
       </c>
       <c r="R2">
-        <v>742.9692528138054</v>
+        <v>27496.66828959495</v>
       </c>
       <c r="S2">
-        <v>0.3934735416351899</v>
+        <v>0.4222776744311685</v>
       </c>
       <c r="T2">
-        <v>0.3934735416351899</v>
+        <v>0.4222776744311685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.72844643797</v>
+        <v>120.6115993333333</v>
       </c>
       <c r="H3">
-        <v>109.72844643797</v>
+        <v>361.834798</v>
       </c>
       <c r="I3">
-        <v>0.405746132911943</v>
+        <v>0.4273073648704228</v>
       </c>
       <c r="J3">
-        <v>0.405746132911943</v>
+        <v>0.4273073648704228</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.211189512286709</v>
+        <v>0.05766533333333334</v>
       </c>
       <c r="N3">
-        <v>0.211189512286709</v>
+        <v>0.172996</v>
       </c>
       <c r="O3">
-        <v>0.0302469704114632</v>
+        <v>0.002249697164903793</v>
       </c>
       <c r="P3">
-        <v>0.0302469704114632</v>
+        <v>0.002249697164903793</v>
       </c>
       <c r="Q3">
-        <v>23.17349708721316</v>
+        <v>6.955108079423112</v>
       </c>
       <c r="R3">
-        <v>23.17349708721316</v>
+        <v>62.595972714808</v>
       </c>
       <c r="S3">
-        <v>0.01227259127675315</v>
+        <v>0.0009613121672915009</v>
       </c>
       <c r="T3">
-        <v>0.01227259127675315</v>
+        <v>0.0009613121672915007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>133.772565691004</v>
+        <v>120.6115993333333</v>
       </c>
       <c r="H4">
-        <v>133.772565691004</v>
+        <v>361.834798</v>
       </c>
       <c r="I4">
-        <v>0.4946547862546944</v>
+        <v>0.4273073648704228</v>
       </c>
       <c r="J4">
-        <v>0.4946547862546944</v>
+        <v>0.4273073648704228</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.77098124444703</v>
+        <v>0.244046</v>
       </c>
       <c r="N4">
-        <v>6.77098124444703</v>
+        <v>0.732138</v>
       </c>
       <c r="O4">
-        <v>0.9697530295885368</v>
+        <v>0.009520964547841182</v>
       </c>
       <c r="P4">
-        <v>0.9697530295885368</v>
+        <v>0.009520964547841182</v>
       </c>
       <c r="Q4">
-        <v>905.7715333153462</v>
+        <v>29.43477837090266</v>
       </c>
       <c r="R4">
-        <v>905.7715333153462</v>
+        <v>264.913005338124</v>
       </c>
       <c r="S4">
-        <v>0.47969297757096</v>
+        <v>0.004068378271962732</v>
       </c>
       <c r="T4">
-        <v>0.47969297757096</v>
+        <v>0.004068378271962732</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>133.772565691004</v>
+        <v>134.43072</v>
       </c>
       <c r="H5">
-        <v>133.772565691004</v>
+        <v>403.29216</v>
       </c>
       <c r="I5">
-        <v>0.4946547862546944</v>
+        <v>0.4762662715555095</v>
       </c>
       <c r="J5">
-        <v>0.4946547862546944</v>
+        <v>0.4762662715555095</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.211189512286709</v>
+        <v>25.33077566666667</v>
       </c>
       <c r="N5">
-        <v>0.211189512286709</v>
+        <v>75.992327</v>
       </c>
       <c r="O5">
-        <v>0.0302469704114632</v>
+        <v>0.988229338287255</v>
       </c>
       <c r="P5">
-        <v>0.0302469704114632</v>
+        <v>0.988229338287255</v>
       </c>
       <c r="Q5">
-        <v>28.25136290562488</v>
+        <v>3405.23441102848</v>
       </c>
       <c r="R5">
-        <v>28.25136290562488</v>
+        <v>30647.10969925632</v>
       </c>
       <c r="S5">
-        <v>0.01496180868373439</v>
+        <v>0.4706603023878393</v>
       </c>
       <c r="T5">
-        <v>0.01496180868373439</v>
+        <v>0.4706603023878393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.9351979476943</v>
+        <v>134.43072</v>
       </c>
       <c r="H6">
-        <v>26.9351979476943</v>
+        <v>403.29216</v>
       </c>
       <c r="I6">
-        <v>0.09959908083336254</v>
+        <v>0.4762662715555095</v>
       </c>
       <c r="J6">
-        <v>0.09959908083336254</v>
+        <v>0.4762662715555095</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>6.77098124444703</v>
+        <v>0.05766533333333334</v>
       </c>
       <c r="N6">
-        <v>6.77098124444703</v>
+        <v>0.172996</v>
       </c>
       <c r="O6">
-        <v>0.9697530295885368</v>
+        <v>0.002249697164903793</v>
       </c>
       <c r="P6">
-        <v>0.9697530295885368</v>
+        <v>0.002249697164903793</v>
       </c>
       <c r="Q6">
-        <v>182.3777201193062</v>
+        <v>7.751992279040001</v>
       </c>
       <c r="R6">
-        <v>182.3777201193062</v>
+        <v>69.76793051136001</v>
       </c>
       <c r="S6">
-        <v>0.09658651038238689</v>
+        <v>0.00107145488085773</v>
       </c>
       <c r="T6">
-        <v>0.09658651038238689</v>
+        <v>0.00107145488085773</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.9351979476943</v>
+        <v>134.43072</v>
       </c>
       <c r="H7">
-        <v>26.9351979476943</v>
+        <v>403.29216</v>
       </c>
       <c r="I7">
-        <v>0.09959908083336254</v>
+        <v>0.4762662715555095</v>
       </c>
       <c r="J7">
-        <v>0.09959908083336254</v>
+        <v>0.4762662715555095</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.211189512286709</v>
+        <v>0.244046</v>
       </c>
       <c r="N7">
-        <v>0.211189512286709</v>
+        <v>0.732138</v>
       </c>
       <c r="O7">
-        <v>0.0302469704114632</v>
+        <v>0.009520964547841182</v>
       </c>
       <c r="P7">
-        <v>0.0302469704114632</v>
+        <v>0.009520964547841182</v>
       </c>
       <c r="Q7">
-        <v>5.688431317919524</v>
+        <v>32.80727949312</v>
       </c>
       <c r="R7">
-        <v>5.688431317919524</v>
+        <v>295.26551543808</v>
       </c>
       <c r="S7">
-        <v>0.003012570450975648</v>
+        <v>0.004534514286812508</v>
       </c>
       <c r="T7">
-        <v>0.003012570450975648</v>
+        <v>0.004534514286812508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>27.21726533333333</v>
+      </c>
+      <c r="H8">
+        <v>81.651796</v>
+      </c>
+      <c r="I8">
+        <v>0.09642636357406766</v>
+      </c>
+      <c r="J8">
+        <v>0.09642636357406766</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>25.33077566666667</v>
+      </c>
+      <c r="N8">
+        <v>75.992327</v>
+      </c>
+      <c r="O8">
+        <v>0.988229338287255</v>
+      </c>
+      <c r="P8">
+        <v>0.988229338287255</v>
+      </c>
+      <c r="Q8">
+        <v>689.4344424188102</v>
+      </c>
+      <c r="R8">
+        <v>6204.909981769292</v>
+      </c>
+      <c r="S8">
+        <v>0.09529136146824715</v>
+      </c>
+      <c r="T8">
+        <v>0.09529136146824715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>27.21726533333333</v>
+      </c>
+      <c r="H9">
+        <v>81.651796</v>
+      </c>
+      <c r="I9">
+        <v>0.09642636357406766</v>
+      </c>
+      <c r="J9">
+        <v>0.09642636357406766</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05766533333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.172996</v>
+      </c>
+      <c r="O9">
+        <v>0.002249697164903793</v>
+      </c>
+      <c r="P9">
+        <v>0.002249697164903793</v>
+      </c>
+      <c r="Q9">
+        <v>1.569492677868445</v>
+      </c>
+      <c r="R9">
+        <v>14.125434100816</v>
+      </c>
+      <c r="S9">
+        <v>0.0002169301167545624</v>
+      </c>
+      <c r="T9">
+        <v>0.0002169301167545624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>27.21726533333333</v>
+      </c>
+      <c r="H10">
+        <v>81.651796</v>
+      </c>
+      <c r="I10">
+        <v>0.09642636357406766</v>
+      </c>
+      <c r="J10">
+        <v>0.09642636357406766</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.244046</v>
+      </c>
+      <c r="N10">
+        <v>0.732138</v>
+      </c>
+      <c r="O10">
+        <v>0.009520964547841182</v>
+      </c>
+      <c r="P10">
+        <v>0.009520964547841182</v>
+      </c>
+      <c r="Q10">
+        <v>6.642264735538666</v>
+      </c>
+      <c r="R10">
+        <v>59.780382619848</v>
+      </c>
+      <c r="S10">
+        <v>0.0009180719890659424</v>
+      </c>
+      <c r="T10">
+        <v>0.0009180719890659424</v>
       </c>
     </row>
   </sheetData>
